--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ly9-Ly9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ly9-Ly9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.690763</v>
+        <v>0.0435</v>
       </c>
       <c r="H2">
-        <v>2.072289</v>
+        <v>0.1305</v>
       </c>
       <c r="I2">
-        <v>0.01519479024534016</v>
+        <v>0.001251028107840694</v>
       </c>
       <c r="J2">
-        <v>0.01519479024534015</v>
+        <v>0.001251028107840694</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -546,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.690763</v>
+        <v>0.0435</v>
       </c>
       <c r="N2">
-        <v>2.072289</v>
+        <v>0.1305</v>
       </c>
       <c r="O2">
-        <v>0.01519479024534016</v>
+        <v>0.001251028107840694</v>
       </c>
       <c r="P2">
-        <v>0.01519479024534015</v>
+        <v>0.001251028107840694</v>
       </c>
       <c r="Q2">
-        <v>0.477153522169</v>
+        <v>0.00189225</v>
       </c>
       <c r="R2">
-        <v>4.294381699521</v>
+        <v>0.01703025</v>
       </c>
       <c r="S2">
-        <v>0.0002308816505998844</v>
+        <v>1.565071326607467E-06</v>
       </c>
       <c r="T2">
-        <v>0.0002308816505998843</v>
+        <v>1.565071326607466E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -575,10 +578,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,108 +593,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.690763</v>
+        <v>0.0435</v>
       </c>
       <c r="H3">
-        <v>2.072289</v>
+        <v>0.1305</v>
       </c>
       <c r="I3">
-        <v>0.01519479024534016</v>
+        <v>0.001251028107840694</v>
       </c>
       <c r="J3">
-        <v>0.01519479024534015</v>
+        <v>0.001251028107840694</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>44.76975266666667</v>
+        <v>0.02618033333333333</v>
       </c>
       <c r="N3">
-        <v>134.309258</v>
+        <v>0.078541</v>
       </c>
       <c r="O3">
-        <v>0.9848052097546599</v>
+        <v>0.0007529271924744515</v>
       </c>
       <c r="P3">
-        <v>0.9848052097546598</v>
+        <v>0.0007529271924744514</v>
       </c>
       <c r="Q3">
-        <v>30.92528866128467</v>
+        <v>0.0011388445</v>
       </c>
       <c r="R3">
-        <v>278.327597951562</v>
+        <v>0.0102496005</v>
       </c>
       <c r="S3">
-        <v>0.01496390859474027</v>
+        <v>9.41933080943119E-07</v>
       </c>
       <c r="T3">
-        <v>0.01496390859474027</v>
+        <v>9.419330809431186E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.0435</v>
+      </c>
+      <c r="H4">
+        <v>0.1305</v>
+      </c>
+      <c r="I4">
+        <v>0.001251028107840694</v>
+      </c>
+      <c r="J4">
+        <v>0.001251028107840694</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>44.76975266666667</v>
-      </c>
-      <c r="H4">
-        <v>134.309258</v>
-      </c>
-      <c r="I4">
-        <v>0.9848052097546599</v>
-      </c>
-      <c r="J4">
-        <v>0.9848052097546598</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.690763</v>
+        <v>34.70172066666667</v>
       </c>
       <c r="N4">
-        <v>2.072289</v>
+        <v>104.105162</v>
       </c>
       <c r="O4">
-        <v>0.01519479024534016</v>
+        <v>0.9979960446996849</v>
       </c>
       <c r="P4">
-        <v>0.01519479024534015</v>
+        <v>0.9979960446996848</v>
       </c>
       <c r="Q4">
-        <v>30.92528866128467</v>
+        <v>1.509524849</v>
       </c>
       <c r="R4">
-        <v>278.327597951562</v>
+        <v>13.585723641</v>
       </c>
       <c r="S4">
-        <v>0.01496390859474027</v>
+        <v>0.001248521103433143</v>
       </c>
       <c r="T4">
-        <v>0.01496390859474027</v>
+        <v>0.001248521103433143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -699,61 +702,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.02618033333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.078541</v>
+      </c>
+      <c r="I5">
+        <v>0.0007529271924744515</v>
+      </c>
+      <c r="J5">
+        <v>0.0007529271924744514</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.0435</v>
+      </c>
+      <c r="N5">
+        <v>0.1305</v>
+      </c>
+      <c r="O5">
+        <v>0.001251028107840694</v>
+      </c>
+      <c r="P5">
+        <v>0.001251028107840694</v>
+      </c>
+      <c r="Q5">
+        <v>0.0011388445</v>
+      </c>
+      <c r="R5">
+        <v>0.0102496005</v>
+      </c>
+      <c r="S5">
+        <v>9.41933080943119E-07</v>
+      </c>
+      <c r="T5">
+        <v>9.419330809431186E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.02618033333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.078541</v>
+      </c>
+      <c r="I6">
+        <v>0.0007529271924744515</v>
+      </c>
+      <c r="J6">
+        <v>0.0007529271924744514</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.02618033333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.078541</v>
+      </c>
+      <c r="O6">
+        <v>0.0007529271924744515</v>
+      </c>
+      <c r="P6">
+        <v>0.0007529271924744514</v>
+      </c>
+      <c r="Q6">
+        <v>0.0006854098534444445</v>
+      </c>
+      <c r="R6">
+        <v>0.006168688681</v>
+      </c>
+      <c r="S6">
+        <v>5.668993571674598E-07</v>
+      </c>
+      <c r="T6">
+        <v>5.668993571674596E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.02618033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.078541</v>
+      </c>
+      <c r="I7">
+        <v>0.0007529271924744515</v>
+      </c>
+      <c r="J7">
+        <v>0.0007529271924744514</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>34.70172066666667</v>
+      </c>
+      <c r="N7">
+        <v>104.105162</v>
+      </c>
+      <c r="O7">
+        <v>0.9979960446996849</v>
+      </c>
+      <c r="P7">
+        <v>0.9979960446996848</v>
+      </c>
+      <c r="Q7">
+        <v>0.9085026142935555</v>
+      </c>
+      <c r="R7">
+        <v>8.176523528642001</v>
+      </c>
+      <c r="S7">
+        <v>0.000751418360036341</v>
+      </c>
+      <c r="T7">
+        <v>0.0007514183600363408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>34.70172066666667</v>
+      </c>
+      <c r="H8">
+        <v>104.105162</v>
+      </c>
+      <c r="I8">
+        <v>0.9979960446996849</v>
+      </c>
+      <c r="J8">
+        <v>0.9979960446996848</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0435</v>
+      </c>
+      <c r="N8">
+        <v>0.1305</v>
+      </c>
+      <c r="O8">
+        <v>0.001251028107840694</v>
+      </c>
+      <c r="P8">
+        <v>0.001251028107840694</v>
+      </c>
+      <c r="Q8">
+        <v>1.509524849</v>
+      </c>
+      <c r="R8">
+        <v>13.585723641</v>
+      </c>
+      <c r="S8">
+        <v>0.001248521103433143</v>
+      </c>
+      <c r="T8">
+        <v>0.001248521103433143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>44.76975266666667</v>
-      </c>
-      <c r="H5">
-        <v>134.309258</v>
-      </c>
-      <c r="I5">
-        <v>0.9848052097546599</v>
-      </c>
-      <c r="J5">
-        <v>0.9848052097546598</v>
-      </c>
-      <c r="K5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>34.70172066666667</v>
+      </c>
+      <c r="H9">
+        <v>104.105162</v>
+      </c>
+      <c r="I9">
+        <v>0.9979960446996849</v>
+      </c>
+      <c r="J9">
+        <v>0.9979960446996848</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.02618033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.078541</v>
+      </c>
+      <c r="O9">
+        <v>0.0007529271924744515</v>
+      </c>
+      <c r="P9">
+        <v>0.0007529271924744514</v>
+      </c>
+      <c r="Q9">
+        <v>0.9085026142935555</v>
+      </c>
+      <c r="R9">
+        <v>8.176523528642001</v>
+      </c>
+      <c r="S9">
+        <v>0.000751418360036341</v>
+      </c>
+      <c r="T9">
+        <v>0.0007514183600363408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>44.76975266666667</v>
-      </c>
-      <c r="N5">
-        <v>134.309258</v>
-      </c>
-      <c r="O5">
-        <v>0.9848052097546599</v>
-      </c>
-      <c r="P5">
-        <v>0.9848052097546598</v>
-      </c>
-      <c r="Q5">
-        <v>2004.330753834507</v>
-      </c>
-      <c r="R5">
-        <v>18038.97678451056</v>
-      </c>
-      <c r="S5">
-        <v>0.9698413011599197</v>
-      </c>
-      <c r="T5">
-        <v>0.9698413011599195</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>34.70172066666667</v>
+      </c>
+      <c r="H10">
+        <v>104.105162</v>
+      </c>
+      <c r="I10">
+        <v>0.9979960446996849</v>
+      </c>
+      <c r="J10">
+        <v>0.9979960446996848</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>34.70172066666667</v>
+      </c>
+      <c r="N10">
+        <v>104.105162</v>
+      </c>
+      <c r="O10">
+        <v>0.9979960446996849</v>
+      </c>
+      <c r="P10">
+        <v>0.9979960446996848</v>
+      </c>
+      <c r="Q10">
+        <v>1204.209417227361</v>
+      </c>
+      <c r="R10">
+        <v>10837.88475504625</v>
+      </c>
+      <c r="S10">
+        <v>0.9959961052362155</v>
+      </c>
+      <c r="T10">
+        <v>0.9959961052362153</v>
       </c>
     </row>
   </sheetData>
